--- a/athena/solvers_eos_test/data.xlsx
+++ b/athena/solvers_eos_test/data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School\reu2024\research\summer2024\athena\solvers_eos_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5E3E1F8-EEBA-4324-B201-C70406EA4FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7964E-F4BF-4D9B-8BD0-972312355AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test 2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
   <si>
     <t>Solver</t>
   </si>
@@ -219,7 +220,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -394,7 +407,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$10</c:f>
+              <c:f>'Test 1'!$A$2:$B$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
                 <c:lvl>
@@ -460,7 +473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$10</c:f>
+              <c:f>'Test 1'!$C$2:$C$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -828,7 +841,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$10</c:f>
+              <c:f>'Test 1'!$A$2:$B$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
                 <c:lvl>
@@ -894,7 +907,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$10</c:f>
+              <c:f>'Test 1'!$E$2:$E$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1007,7 +1020,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$A$2:$B$10</c:f>
+              <c:f>'Test 1'!$A$2:$B$10</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
                 <c:lvl>
@@ -1073,7 +1086,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$10</c:f>
+              <c:f>'Test 1'!$F$2:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2488,15 +2501,15 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{657BDFD0-E434-484E-BEA3-80260269E023}" name="Solver"/>
     <tableColumn id="2" xr3:uid="{0B80B1C1-D54E-4098-98AE-7C49DC245A22}" name="EOS"/>
-    <tableColumn id="3" xr3:uid="{EAA3E1A0-2646-46AD-B5DE-A0107455F578}" name="Run Time (sec)" dataDxfId="0"/>
-    <tableColumn id="4" xr3:uid="{F2807705-1EA5-4A02-9884-E519A0FDDB09}" name="Run Time (min)" dataDxfId="3">
+    <tableColumn id="3" xr3:uid="{EAA3E1A0-2646-46AD-B5DE-A0107455F578}" name="Run Time (sec)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{F2807705-1EA5-4A02-9884-E519A0FDDB09}" name="Run Time (min)" dataDxfId="6">
       <calculatedColumnFormula>C2/60</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2271E9E9-BA88-4AE5-A1BA-386059164E71}" name="Cycles"/>
-    <tableColumn id="6" xr3:uid="{F7DE8A38-206E-4273-80C4-070372802C53}" name="Cycles/Sec" dataDxfId="2">
+    <tableColumn id="6" xr3:uid="{F7DE8A38-206E-4273-80C4-070372802C53}" name="Cycles/Sec" dataDxfId="5">
       <calculatedColumnFormula>E2/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7857B376-9208-47CC-A7C7-6B481AE896A2}" name="Cycles/Min" dataDxfId="1">
+    <tableColumn id="7" xr3:uid="{7857B376-9208-47CC-A7C7-6B481AE896A2}" name="Cycles/Min" dataDxfId="4">
       <calculatedColumnFormula>E2/D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2511,6 +2524,43 @@
     <tableColumn id="1" xr3:uid="{07F5A794-617F-4281-9EF0-8FEF7FF08982}" name="Runtime Paramter"/>
     <tableColumn id="2" xr3:uid="{64BB9DC5-79F6-466B-A807-9BCBB0C2624D}" name="Value"/>
     <tableColumn id="3" xr3:uid="{3C17FC5E-716F-4920-965B-26356C03BA27}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBEAE9B0-8232-4008-A0DE-2EEE1EDAE6C1}" name="Table33" displayName="Table33" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32" xr:uid="{CBEAE9B0-8232-4008-A0DE-2EEE1EDAE6C1}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8C393FC0-3CE6-46F3-98FC-1F64EF425F56}" name="Runtime Paramter"/>
+    <tableColumn id="2" xr3:uid="{C4D20EB6-CC6F-4EB9-8D20-BA0C2D4BC1A5}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{11C45285-4E44-4CE1-99D0-62AE6A3DA65C}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4AE67F17-C609-4CEF-9D43-CC1A07850B46}" name="Table15" displayName="Table15" ref="E1:K10" totalsRowShown="0">
+  <autoFilter ref="E1:K10" xr:uid="{4AE67F17-C609-4CEF-9D43-CC1A07850B46}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:K10">
+    <sortCondition ref="F4294967288:F1"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{4FCF6BA3-F1AE-4179-88FE-0CF4428BA9DC}" name="Solver"/>
+    <tableColumn id="2" xr3:uid="{35F354EC-8AB9-46B5-AAE2-A47597E09775}" name="EOS"/>
+    <tableColumn id="3" xr3:uid="{39083490-C12F-46F1-A650-E84E63D9A851}" name="Run Time (sec)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{DC7711CA-0541-4A54-80CA-808C2C71042A}" name="Run Time (min)" dataDxfId="2">
+      <calculatedColumnFormula>Table15[[#This Row],[Run Time (sec)]]/60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{BE0929BA-7B4C-46CD-8B29-0AEDDCD5BFB8}" name="Cycles"/>
+    <tableColumn id="6" xr3:uid="{A0B5ADA8-1751-4F94-BFC9-2ACE16187086}" name="Cycles/Sec" dataDxfId="1">
+      <calculatedColumnFormula>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D9EA0326-150B-4895-AB90-100456F264E8}" name="Cycles/Min" dataDxfId="0">
+      <calculatedColumnFormula>Table15[[#This Row],[Cycles]]/H2</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2781,8 +2831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="A3:B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2840,18 +2890,18 @@
         <v>29.5833669999999</v>
       </c>
       <c r="D2" s="1">
-        <f>C2/60</f>
+        <f t="shared" ref="D2:D10" si="0">C2/60</f>
         <v>0.49305611666666499</v>
       </c>
       <c r="E2">
         <v>327</v>
       </c>
       <c r="F2" s="1">
-        <f>E2/C2</f>
+        <f t="shared" ref="F2:F10" si="1">E2/C2</f>
         <v>11.053508547556508</v>
       </c>
       <c r="G2" s="1">
-        <f>E2/D2</f>
+        <f t="shared" ref="G2:G10" si="2">E2/D2</f>
         <v>663.21051285339047</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -2869,18 +2919,18 @@
         <v>27.4040509999999</v>
       </c>
       <c r="D3" s="1">
-        <f>C3/60</f>
+        <f t="shared" si="0"/>
         <v>0.45673418333333166</v>
       </c>
       <c r="E3">
         <v>325</v>
       </c>
       <c r="F3" s="1">
-        <f>E3/C3</f>
+        <f t="shared" si="1"/>
         <v>11.859560471552223</v>
       </c>
       <c r="G3" s="1">
-        <f>E3/D3</f>
+        <f t="shared" si="2"/>
         <v>711.57362829313342</v>
       </c>
       <c r="I3" t="s">
@@ -2901,18 +2951,18 @@
         <v>27.175176</v>
       </c>
       <c r="D4" s="1">
-        <f>C4/60</f>
+        <f t="shared" si="0"/>
         <v>0.45291960000000003</v>
       </c>
       <c r="E4">
         <v>325</v>
       </c>
       <c r="F4" s="1">
-        <f>E4/C4</f>
+        <f t="shared" si="1"/>
         <v>11.959444163305511</v>
       </c>
       <c r="G4" s="1">
-        <f>E4/D4</f>
+        <f t="shared" si="2"/>
         <v>717.56664979833056</v>
       </c>
       <c r="I4" t="s">
@@ -2933,18 +2983,18 @@
         <v>20.582201999999899</v>
       </c>
       <c r="D5" s="1">
-        <f>C5/60</f>
+        <f t="shared" si="0"/>
         <v>0.34303669999999831</v>
       </c>
       <c r="E5">
         <v>277</v>
       </c>
       <c r="F5" s="1">
-        <f>E5/C5</f>
+        <f t="shared" si="1"/>
         <v>13.458229590789234</v>
       </c>
       <c r="G5" s="1">
-        <f>E5/D5</f>
+        <f t="shared" si="2"/>
         <v>807.4937754473541</v>
       </c>
       <c r="I5" t="s">
@@ -2965,18 +3015,18 @@
         <v>21.0000199999999</v>
       </c>
       <c r="D6" s="1">
-        <f>C6/60</f>
+        <f t="shared" si="0"/>
         <v>0.35000033333333164</v>
       </c>
       <c r="E6">
         <v>283</v>
       </c>
       <c r="F6" s="1">
-        <f>E6/C6</f>
+        <f t="shared" si="1"/>
         <v>13.476177641735644</v>
       </c>
       <c r="G6" s="1">
-        <f>E6/D6</f>
+        <f t="shared" si="2"/>
         <v>808.57065850413869</v>
       </c>
     </row>
@@ -2991,18 +3041,18 @@
         <v>9.6817790000000006</v>
       </c>
       <c r="D7" s="1">
-        <f>C7/60</f>
+        <f t="shared" si="0"/>
         <v>0.16136298333333335</v>
       </c>
       <c r="E7">
         <v>116</v>
       </c>
       <c r="F7" s="1">
-        <f>E7/C7</f>
+        <f t="shared" si="1"/>
         <v>11.981269144854473</v>
       </c>
       <c r="G7" s="1">
-        <f>E7/D7</f>
+        <f t="shared" si="2"/>
         <v>718.87614869126833</v>
       </c>
       <c r="I7" s="3" t="s">
@@ -3020,18 +3070,18 @@
         <v>8.2876799999999893</v>
       </c>
       <c r="D8" s="1">
-        <f>C8/60</f>
+        <f t="shared" si="0"/>
         <v>0.13812799999999983</v>
       </c>
       <c r="E8">
         <v>116</v>
       </c>
       <c r="F8" s="1">
-        <f>E8/C8</f>
+        <f t="shared" si="1"/>
         <v>13.996679408471387</v>
       </c>
       <c r="G8" s="1">
-        <f>E8/D8</f>
+        <f t="shared" si="2"/>
         <v>839.80076450828324</v>
       </c>
       <c r="I8" t="s">
@@ -3052,18 +3102,18 @@
         <v>8.2630850000000002</v>
       </c>
       <c r="D9" s="1">
-        <f>C9/60</f>
+        <f t="shared" si="0"/>
         <v>0.13771808333333332</v>
       </c>
       <c r="E9">
         <v>116</v>
       </c>
       <c r="F9" s="1">
-        <f>E9/C9</f>
+        <f t="shared" si="1"/>
         <v>14.038340401920106</v>
       </c>
       <c r="G9" s="1">
-        <f>E9/D9</f>
+        <f t="shared" si="2"/>
         <v>842.3004241152064</v>
       </c>
       <c r="I9" t="s">
@@ -3084,18 +3134,18 @@
         <v>7.870978</v>
       </c>
       <c r="D10" s="1">
-        <f>C10/60</f>
+        <f t="shared" si="0"/>
         <v>0.13118296666666668</v>
       </c>
       <c r="E10">
         <v>116</v>
       </c>
       <c r="F10" s="1">
-        <f>E10/C10</f>
+        <f t="shared" si="1"/>
         <v>14.737685710721081</v>
       </c>
       <c r="G10" s="1">
-        <f>E10/D10</f>
+        <f t="shared" si="2"/>
         <v>884.26114264326486</v>
       </c>
       <c r="I10" t="s">
@@ -3259,4 +3309,486 @@
     <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C8BEB4-A6B9-4E92-998B-6A030130C76F}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>18313.996681000001</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <v>305.2332780166667</v>
+      </c>
+      <c r="I2">
+        <v>1969</v>
+      </c>
+      <c r="J2" s="1">
+        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <v>0.10751339722818419</v>
+      </c>
+      <c r="K2" s="1">
+        <f>Table15[[#This Row],[Cycles]]/H2</f>
+        <v>6.4508038336910509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>17143.6922229999</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <v>285.72820371666501</v>
+      </c>
+      <c r="I3">
+        <v>1923</v>
+      </c>
+      <c r="J3" s="1">
+        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <v>0.11216953588446436</v>
+      </c>
+      <c r="K3" s="1">
+        <f>Table15[[#This Row],[Cycles]]/H3</f>
+        <v>6.730172153067862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>64</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>16303.315983</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <v>271.72193305000002</v>
+      </c>
+      <c r="I4">
+        <v>1926</v>
+      </c>
+      <c r="J4" s="1">
+        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <v>0.11813547636617625</v>
+      </c>
+      <c r="K4" s="1">
+        <f>Table15[[#This Row],[Cycles]]/H4</f>
+        <v>7.0881285819705742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>64</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8677.4122139999909</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <v>144.62353689999983</v>
+      </c>
+      <c r="I5">
+        <v>1187</v>
+      </c>
+      <c r="J5" s="1">
+        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <v>0.13679193413042129</v>
+      </c>
+      <c r="K5" s="1">
+        <f>Table15[[#This Row],[Cycles]]/H5</f>
+        <v>8.207516047825278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>9353.7157490000009</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <v>155.89526248333334</v>
+      </c>
+      <c r="I6">
+        <v>1196</v>
+      </c>
+      <c r="J6" s="1">
+        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <v>0.12786362469138143</v>
+      </c>
+      <c r="K6" s="1">
+        <f>Table15[[#This Row],[Cycles]]/H6</f>
+        <v>7.6718174814828872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4585.8174660000004</v>
+      </c>
+      <c r="H7" s="1">
+        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <v>76.430291100000005</v>
+      </c>
+      <c r="I7">
+        <v>577</v>
+      </c>
+      <c r="J7" s="1">
+        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <v>0.12582271411323548</v>
+      </c>
+      <c r="K7" s="1">
+        <f>Table15[[#This Row],[Cycles]]/H7</f>
+        <v>7.5493628467941285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4011.8145979999899</v>
+      </c>
+      <c r="H8" s="1">
+        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <v>66.863576633333167</v>
+      </c>
+      <c r="I8">
+        <v>577</v>
+      </c>
+      <c r="J8" s="1">
+        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <v>0.14382519079711506</v>
+      </c>
+      <c r="K8" s="1">
+        <f>Table15[[#This Row],[Cycles]]/H8</f>
+        <v>8.6295114478269035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4154.8966369999898</v>
+      </c>
+      <c r="H9" s="1">
+        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <v>69.248277283333167</v>
+      </c>
+      <c r="I9">
+        <v>577</v>
+      </c>
+      <c r="J9" s="1">
+        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <v>0.13887228742629282</v>
+      </c>
+      <c r="K9" s="1">
+        <f>Table15[[#This Row],[Cycles]]/H9</f>
+        <v>8.3323372455775679</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3976.6988580000002</v>
+      </c>
+      <c r="H10" s="1">
+        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <v>66.278314300000005</v>
+      </c>
+      <c r="I10">
+        <v>577</v>
+      </c>
+      <c r="J10" s="1">
+        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <v>0.14509522108752043</v>
+      </c>
+      <c r="K10" s="1">
+        <f>Table15[[#This Row],[Cycles]]/H10</f>
+        <v>8.7057132652512248</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32">
+        <v>0.40820000000000001</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/athena/solvers_eos_test/data.xlsx
+++ b/athena/solvers_eos_test/data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\School\reu2024\research\summer2024\athena\solvers_eos_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F7964E-F4BF-4D9B-8BD0-972312355AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB35A0F-9A2D-41C1-8587-A0DD58ED5E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="14460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Test 2" sheetId="2" r:id="rId2"/>
+    <sheet name="MHD Blast" sheetId="2" r:id="rId2"/>
+    <sheet name="Implosion" sheetId="3" r:id="rId3"/>
+    <sheet name="KH Shear" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="73">
   <si>
     <t>Solver</t>
   </si>
@@ -167,12 +169,102 @@
   <si>
     <t>Runtime Paramter</t>
   </si>
+  <si>
+    <t>LHLLC</t>
+  </si>
+  <si>
+    <t>HLLC</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Inside Density</t>
+  </si>
+  <si>
+    <t>Inside Pressure</t>
+  </si>
+  <si>
+    <t>Outside Density</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Configure</t>
+  </si>
+  <si>
+    <t>prob=kh -HDF5 -b --nscalars=1</t>
+  </si>
+  <si>
+    <t>Kelvin-Helmholtz instability</t>
+  </si>
+  <si>
+    <t>Problem ID</t>
+  </si>
+  <si>
+    <t>kh-shear-lecoanet</t>
+  </si>
+  <si>
+    <t>iprob</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>vflow</t>
+  </si>
+  <si>
+    <t>vboost</t>
+  </si>
+  <si>
+    <t>drho_rho0</t>
+  </si>
+  <si>
+    <t>nu_iso</t>
+  </si>
+  <si>
+    <t>nu_scalar_iso</t>
+  </si>
+  <si>
+    <t>kappa_iso</t>
+  </si>
+  <si>
+    <t>Re</t>
+  </si>
+  <si>
+    <t>10^5</t>
+  </si>
+  <si>
+    <t>amplitude of initial perturbation in vy</t>
+  </si>
+  <si>
+    <t>Specifies in code that this is leconanet KH instability</t>
+  </si>
+  <si>
+    <t>relative shear velocity of 2x interfaces</t>
+  </si>
+  <si>
+    <t>background vx for setting up a moving ref frame</t>
+  </si>
+  <si>
+    <t>isotropic viscosity coefficient</t>
+  </si>
+  <si>
+    <t>isotropic passive scalar diffusion coefficient</t>
+  </si>
+  <si>
+    <t>isotropic thermal conduction coefficient</t>
+  </si>
+  <si>
+    <t>stratified or unstratified problem (delta rho / rho0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,18 +280,84 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -209,18 +367,44 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1329,6 +1513,1496 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance by Time (minutes)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Implosion!$E$2:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Roe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LHLLC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HLLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HLLE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LLF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Implosion!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34.815392316666497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.687063049999828</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.635529683333335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30.162029933333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.463254466666669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4FF4-4B05-A5E5-B6086B47A025}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="305941231"/>
+        <c:axId val="1695762575"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="305941231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1695762575"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1695762575"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="305941231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance by Cycles/Second</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Implosion!$E$2:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Roe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LHLLC</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HLLC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HLLE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>LLF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Implosion!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.58646017009632</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.673578232889216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.055260390795805</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.066557889873589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.798401475702263</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1917-4C0B-B1FC-C90833F38693}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="579740207"/>
+        <c:axId val="579744047"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="579740207"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579744047"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="579744047"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="579740207"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by Time (minutes)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'KH Shear'!$E$2:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Roe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LHLLD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HLLE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LLF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HLLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'KH Shear'!$H$2:$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>12.962190999999983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.159824733333316</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.7001897333333336</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.381729766666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B596-4412-9DAC-68214DD56C31}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="347608096"/>
+        <c:axId val="347614336"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="347608096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347614336"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="347614336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347608096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance by Cycles/Second</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'KH Shear'!$E$2:$E$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Roe</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>LHLLD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HLLE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>LLF</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>HLLC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'KH Shear'!$J$2:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22.016596834079493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.469362395579736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.265750581950815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.660766833002413</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EA9-4FDC-8811-61C1AA3A4EAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="347368400"/>
+        <c:axId val="347366480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="347368400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347366480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="347366480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="347368400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1409,6 +3083,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2383,6 +4217,2026 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2492,6 +6346,160 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054A04A2-38E3-557C-07BD-0362705E5275}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8DF58ED-4B7A-C46B-E402-ECBBDDC0D492}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{770D779E-3911-B6AB-8355-60D5C561E867}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E24BAD2-D3FF-944C-F744-A791BC06CD5C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{18603DD7-B37B-4109-927D-6A332E3692B0}" name="Table1" displayName="Table1" ref="A1:G10" totalsRowShown="0">
   <autoFilter ref="A1:G10" xr:uid="{18603DD7-B37B-4109-927D-6A332E3692B0}"/>
@@ -2501,15 +6509,15 @@
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{657BDFD0-E434-484E-BEA3-80260269E023}" name="Solver"/>
     <tableColumn id="2" xr3:uid="{0B80B1C1-D54E-4098-98AE-7C49DC245A22}" name="EOS"/>
-    <tableColumn id="3" xr3:uid="{EAA3E1A0-2646-46AD-B5DE-A0107455F578}" name="Run Time (sec)" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{F2807705-1EA5-4A02-9884-E519A0FDDB09}" name="Run Time (min)" dataDxfId="6">
+    <tableColumn id="3" xr3:uid="{EAA3E1A0-2646-46AD-B5DE-A0107455F578}" name="Run Time (sec)" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F2807705-1EA5-4A02-9884-E519A0FDDB09}" name="Run Time (min)" dataDxfId="10">
       <calculatedColumnFormula>C2/60</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{2271E9E9-BA88-4AE5-A1BA-386059164E71}" name="Cycles"/>
-    <tableColumn id="6" xr3:uid="{F7DE8A38-206E-4273-80C4-070372802C53}" name="Cycles/Sec" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{F7DE8A38-206E-4273-80C4-070372802C53}" name="Cycles/Sec" dataDxfId="9">
       <calculatedColumnFormula>E2/C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7857B376-9208-47CC-A7C7-6B481AE896A2}" name="Cycles/Min" dataDxfId="4">
+    <tableColumn id="7" xr3:uid="{7857B376-9208-47CC-A7C7-6B481AE896A2}" name="Cycles/Min" dataDxfId="8">
       <calculatedColumnFormula>E2/D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2542,24 +6550,61 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4AE67F17-C609-4CEF-9D43-CC1A07850B46}" name="Table15" displayName="Table15" ref="E1:K10" totalsRowShown="0">
-  <autoFilter ref="E1:K10" xr:uid="{4AE67F17-C609-4CEF-9D43-CC1A07850B46}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:K10">
-    <sortCondition ref="F4294967288:F1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C049FE0B-7D55-4078-B28E-4F8A4644E6A2}" name="Table335" displayName="Table335" ref="A1:C32" totalsRowShown="0">
+  <autoFilter ref="A1:C32" xr:uid="{C049FE0B-7D55-4078-B28E-4F8A4644E6A2}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{405AC6C5-68E6-4AE2-83FA-345DC156F869}" name="Runtime Paramter"/>
+    <tableColumn id="2" xr3:uid="{FC2FCEA8-1EDE-4FC0-80C1-95B9536BD303}" name="Value"/>
+    <tableColumn id="3" xr3:uid="{0AE2E949-1C5E-4BB1-ABC1-C2830B37C316}" name="Notes"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A065BFC3-B20B-4D30-8778-6E88FDC1AD14}" name="Table6" displayName="Table6" ref="E1:K6" totalsRowShown="0">
+  <autoFilter ref="E1:K6" xr:uid="{A065BFC3-B20B-4D30-8778-6E88FDC1AD14}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:K6">
+    <sortCondition descending="1" ref="G1:G6"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{4FCF6BA3-F1AE-4179-88FE-0CF4428BA9DC}" name="Solver"/>
-    <tableColumn id="2" xr3:uid="{35F354EC-8AB9-46B5-AAE2-A47597E09775}" name="EOS"/>
-    <tableColumn id="3" xr3:uid="{39083490-C12F-46F1-A650-E84E63D9A851}" name="Run Time (sec)" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{DC7711CA-0541-4A54-80CA-808C2C71042A}" name="Run Time (min)" dataDxfId="2">
-      <calculatedColumnFormula>Table15[[#This Row],[Run Time (sec)]]/60</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{98BD80B4-1294-47E5-8F8D-C73185FDE5FE}" name="Solver"/>
+    <tableColumn id="2" xr3:uid="{9E53C8CE-1E4F-4591-8DBA-6F63225F528A}" name="EOS"/>
+    <tableColumn id="3" xr3:uid="{AC17EED1-8FBE-4973-A0DF-1B903FD23519}" name="Run Time (sec)" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{241F3463-6787-4EA5-861B-133433EB0779}" name="Run Time (min)" dataDxfId="6">
+      <calculatedColumnFormula>Table6[[#This Row],[Run Time (sec)]]/60</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{BE0929BA-7B4C-46CD-8B29-0AEDDCD5BFB8}" name="Cycles"/>
-    <tableColumn id="6" xr3:uid="{A0B5ADA8-1751-4F94-BFC9-2ACE16187086}" name="Cycles/Sec" dataDxfId="1">
-      <calculatedColumnFormula>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{2DB8B302-358D-4A22-A5E6-2FD835ACD4F2}" name="Cycles"/>
+    <tableColumn id="6" xr3:uid="{B126A4AE-FE69-4EF7-8399-685F28F2D46D}" name="Cycles/Sec" dataDxfId="5">
+      <calculatedColumnFormula>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (sec)]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{D9EA0326-150B-4895-AB90-100456F264E8}" name="Cycles/Min" dataDxfId="0">
-      <calculatedColumnFormula>Table15[[#This Row],[Cycles]]/H2</calculatedColumnFormula>
+    <tableColumn id="7" xr3:uid="{1903F6AF-A71F-40A0-9395-6930F873E773}" name="Cycles/Min" dataDxfId="4">
+      <calculatedColumnFormula>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (min)]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C13D46E1-ABF3-4DD1-9B7C-D9A31BF3B92C}" name="Table66" displayName="Table66" ref="E1:K6" totalsRowShown="0">
+  <autoFilter ref="E1:K6" xr:uid="{C13D46E1-ABF3-4DD1-9B7C-D9A31BF3B92C}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E2:K6">
+    <sortCondition descending="1" ref="G1:G6"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{329D0D09-3899-4EEA-B23D-FE67DB04F119}" name="Solver"/>
+    <tableColumn id="2" xr3:uid="{228240FE-E4B9-42CC-A3DE-4061E389EDED}" name="EOS"/>
+    <tableColumn id="3" xr3:uid="{F257C5AE-F78D-4638-B72C-A643124F002F}" name="Run Time (sec)" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{4EF11EE8-F8C8-47CE-A346-D065C6BF81AE}" name="Run Time (min)" dataDxfId="2">
+      <calculatedColumnFormula>Table66[[#This Row],[Run Time (sec)]]/60</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{194A9117-6635-4C9D-8718-4C8E323E3CC5}" name="Cycles"/>
+    <tableColumn id="6" xr3:uid="{3E1D60C0-249E-4670-9577-8BCAD48B568D}" name="Cycles/Sec" dataDxfId="1">
+      <calculatedColumnFormula>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (sec)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{6F435A2F-BEDA-481B-999B-FA51E94A8C56}" name="Cycles/Min" dataDxfId="0">
+      <calculatedColumnFormula>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (min)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3315,8 +7360,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35C8BEB4-A6B9-4E92-998B-6A030130C76F}">
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,18 +7421,18 @@
         <v>18313.996681000001</v>
       </c>
       <c r="H2" s="1">
-        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <f>#REF!/60</f>
         <v>305.2332780166667</v>
       </c>
       <c r="I2">
         <v>1969</v>
       </c>
       <c r="J2" s="1">
-        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <f>#REF!/#REF!</f>
         <v>0.10751339722818419</v>
       </c>
       <c r="K2" s="1">
-        <f>Table15[[#This Row],[Cycles]]/H2</f>
+        <f>#REF!/H2</f>
         <v>6.4508038336910509</v>
       </c>
     </row>
@@ -3408,18 +7453,18 @@
         <v>17143.6922229999</v>
       </c>
       <c r="H3" s="1">
-        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <f>#REF!/60</f>
         <v>285.72820371666501</v>
       </c>
       <c r="I3">
         <v>1923</v>
       </c>
       <c r="J3" s="1">
-        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <f>#REF!/#REF!</f>
         <v>0.11216953588446436</v>
       </c>
       <c r="K3" s="1">
-        <f>Table15[[#This Row],[Cycles]]/H3</f>
+        <f>#REF!/H3</f>
         <v>6.730172153067862</v>
       </c>
     </row>
@@ -3440,18 +7485,18 @@
         <v>16303.315983</v>
       </c>
       <c r="H4" s="1">
-        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <f>#REF!/60</f>
         <v>271.72193305000002</v>
       </c>
       <c r="I4">
         <v>1926</v>
       </c>
       <c r="J4" s="1">
-        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <f>#REF!/#REF!</f>
         <v>0.11813547636617625</v>
       </c>
       <c r="K4" s="1">
-        <f>Table15[[#This Row],[Cycles]]/H4</f>
+        <f>#REF!/H4</f>
         <v>7.0881285819705742</v>
       </c>
     </row>
@@ -3472,18 +7517,18 @@
         <v>8677.4122139999909</v>
       </c>
       <c r="H5" s="1">
-        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <f>#REF!/60</f>
         <v>144.62353689999983</v>
       </c>
       <c r="I5">
         <v>1187</v>
       </c>
       <c r="J5" s="1">
-        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <f>#REF!/#REF!</f>
         <v>0.13679193413042129</v>
       </c>
       <c r="K5" s="1">
-        <f>Table15[[#This Row],[Cycles]]/H5</f>
+        <f>#REF!/H5</f>
         <v>8.207516047825278</v>
       </c>
     </row>
@@ -3498,18 +7543,18 @@
         <v>9353.7157490000009</v>
       </c>
       <c r="H6" s="1">
-        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
+        <f>#REF!/60</f>
         <v>155.89526248333334</v>
       </c>
       <c r="I6">
         <v>1196</v>
       </c>
       <c r="J6" s="1">
-        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
+        <f>#REF!/#REF!</f>
         <v>0.12786362469138143</v>
       </c>
       <c r="K6" s="1">
-        <f>Table15[[#This Row],[Cycles]]/H6</f>
+        <f>#REF!/H6</f>
         <v>7.6718174814828872</v>
       </c>
     </row>
@@ -3517,30 +7562,10 @@
       <c r="A7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4585.8174660000004</v>
-      </c>
-      <c r="H7" s="1">
-        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
-        <v>76.430291100000005</v>
-      </c>
-      <c r="I7">
-        <v>577</v>
-      </c>
-      <c r="J7" s="1">
-        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
-        <v>0.12582271411323548</v>
-      </c>
-      <c r="K7" s="1">
-        <f>Table15[[#This Row],[Cycles]]/H7</f>
-        <v>7.5493628467941285</v>
-      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3549,30 +7574,10 @@
       <c r="B8">
         <v>16</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4011.8145979999899</v>
-      </c>
-      <c r="H8" s="1">
-        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
-        <v>66.863576633333167</v>
-      </c>
-      <c r="I8">
-        <v>577</v>
-      </c>
-      <c r="J8" s="1">
-        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
-        <v>0.14382519079711506</v>
-      </c>
-      <c r="K8" s="1">
-        <f>Table15[[#This Row],[Cycles]]/H8</f>
-        <v>8.6295114478269035</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -3581,30 +7586,10 @@
       <c r="B9">
         <v>16</v>
       </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4154.8966369999898</v>
-      </c>
-      <c r="H9" s="1">
-        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
-        <v>69.248277283333167</v>
-      </c>
-      <c r="I9">
-        <v>577</v>
-      </c>
-      <c r="J9" s="1">
-        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
-        <v>0.13887228742629282</v>
-      </c>
-      <c r="K9" s="1">
-        <f>Table15[[#This Row],[Cycles]]/H9</f>
-        <v>8.3323372455775679</v>
-      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -3613,30 +7598,10 @@
       <c r="B10">
         <v>16</v>
       </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="1">
-        <v>3976.6988580000002</v>
-      </c>
-      <c r="H10" s="1">
-        <f>Table15[[#This Row],[Run Time (sec)]]/60</f>
-        <v>66.278314300000005</v>
-      </c>
-      <c r="I10">
-        <v>577</v>
-      </c>
-      <c r="J10" s="1">
-        <f>Table15[[#This Row],[Cycles]]/Table15[[#This Row],[Run Time (sec)]]</f>
-        <v>0.14509522108752043</v>
-      </c>
-      <c r="K10" s="1">
-        <f>Table15[[#This Row],[Cycles]]/H10</f>
-        <v>8.7057132652512248</v>
-      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -3786,8 +7751,887 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{336007FF-B725-4FDB-A779-08F0BDF0F2AB}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2088.9235389999899</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Table6[[#This Row],[Run Time (sec)]]/60</f>
+        <v>34.815392316666497</v>
+      </c>
+      <c r="I2">
+        <v>30470</v>
+      </c>
+      <c r="J2" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (sec)]]</f>
+        <v>14.58646017009632</v>
+      </c>
+      <c r="K2" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (min)]]</f>
+        <v>875.18761020577927</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2081.2237829999899</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Table6[[#This Row],[Run Time (sec)]]/60</f>
+        <v>34.687063049999828</v>
+      </c>
+      <c r="I3">
+        <v>30539</v>
+      </c>
+      <c r="J3" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (sec)]]</f>
+        <v>14.673578232889216</v>
+      </c>
+      <c r="K3" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (min)]]</f>
+        <v>880.414693973353</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>400</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1898.131781</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Table6[[#This Row],[Run Time (sec)]]/60</f>
+        <v>31.635529683333335</v>
+      </c>
+      <c r="I4">
+        <v>30475</v>
+      </c>
+      <c r="J4" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (sec)]]</f>
+        <v>16.055260390795805</v>
+      </c>
+      <c r="K4" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (min)]]</f>
+        <v>963.31562344774829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1809.721796</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Table6[[#This Row],[Run Time (sec)]]/60</f>
+        <v>30.162029933333333</v>
+      </c>
+      <c r="I5">
+        <v>29076</v>
+      </c>
+      <c r="J5" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (sec)]]</f>
+        <v>16.066557889873589</v>
+      </c>
+      <c r="K5" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (min)]]</f>
+        <v>963.99347339241535</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1467.7952680000001</v>
+      </c>
+      <c r="H6" s="1">
+        <f>Table6[[#This Row],[Run Time (sec)]]/60</f>
+        <v>24.463254466666669</v>
+      </c>
+      <c r="I6">
+        <v>29060</v>
+      </c>
+      <c r="J6" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (sec)]]</f>
+        <v>19.798401475702263</v>
+      </c>
+      <c r="K6" s="1">
+        <f>Table6[[#This Row],[Cycles]]/Table6[[#This Row],[Run Time (min)]]</f>
+        <v>1187.9040885421357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>400</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D495703-40C5-47D1-B0BF-6E8D4EEFDD9F}">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="8"/>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>777.73145999999895</v>
+      </c>
+      <c r="H2" s="1">
+        <f>Table66[[#This Row],[Run Time (sec)]]/60</f>
+        <v>12.962190999999983</v>
+      </c>
+      <c r="I2">
+        <v>17123</v>
+      </c>
+      <c r="J2" s="1">
+        <f>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (sec)]]</f>
+        <v>22.016596834079493</v>
+      </c>
+      <c r="K2" s="1">
+        <f>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (min)]]</f>
+        <v>1320.9958100447695</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10">
+        <v>128</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>729.58948399999895</v>
+      </c>
+      <c r="H3" s="1">
+        <f>Table66[[#This Row],[Run Time (sec)]]/60</f>
+        <v>12.159824733333316</v>
+      </c>
+      <c r="I3">
+        <v>17123</v>
+      </c>
+      <c r="J3" s="1">
+        <f>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (sec)]]</f>
+        <v>23.469362395579736</v>
+      </c>
+      <c r="K3" s="1">
+        <f>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (min)]]</f>
+        <v>1408.1617437347843</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="7">
+        <v>256</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>582.01138400000002</v>
+      </c>
+      <c r="H4" s="1">
+        <f>Table66[[#This Row],[Run Time (sec)]]/60</f>
+        <v>9.7001897333333336</v>
+      </c>
+      <c r="I4">
+        <v>17033</v>
+      </c>
+      <c r="J4" s="1">
+        <f>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (sec)]]</f>
+        <v>29.265750581950815</v>
+      </c>
+      <c r="K4" s="1">
+        <f>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (min)]]</f>
+        <v>1755.945034917049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>442.90378600000003</v>
+      </c>
+      <c r="H5" s="1">
+        <f>Table66[[#This Row],[Run Time (sec)]]/60</f>
+        <v>7.381729766666667</v>
+      </c>
+      <c r="I5">
+        <v>17123</v>
+      </c>
+      <c r="J5" s="1">
+        <f>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (sec)]]</f>
+        <v>38.660766833002413</v>
+      </c>
+      <c r="K5" s="1">
+        <f>Table66[[#This Row],[Cycles]]/Table66[[#This Row],[Run Time (min)]]</f>
+        <v>2319.6460099801448</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1">
+        <f>Table66[[#This Row],[Run Time (sec)]]/60</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="7">
+        <v>64</v>
+      </c>
+      <c r="C8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="10">
+        <v>128</v>
+      </c>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="8"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="7">
+        <v>-0.5</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="7">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="8"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <v>10</v>
+      </c>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="7">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="10">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="7">
+        <v>0</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="16">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="16">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="16">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="7"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="10">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
